--- a/Flipkart/FSN Data From Company/Sonik Flipkart Helmets database.xlsx
+++ b/Flipkart/FSN Data From Company/Sonik Flipkart Helmets database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Umesh\Documents\Automation\Flipkart\FSN Data From Company\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\Flipkart\FSN Data From Company\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4003608C-2F4F-4A01-81E8-A7FE68942695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38F8CB6-A86D-4DFF-B339-8549CF71CC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{B7B79EAA-AD19-40C7-AF86-56E1084F93F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B7B79EAA-AD19-40C7-AF86-56E1084F93F7}"/>
   </bookViews>
   <sheets>
     <sheet name="North Existing- Proposed" sheetId="2" r:id="rId1"/>
@@ -46,9 +46,6 @@
     <t>Sonik G-4 Paint in all colors (M)</t>
   </si>
   <si>
-    <t>FSN/ISBN13</t>
-  </si>
-  <si>
     <t>Color</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>Sonik NPS GOLD ECO Helmet (L)</t>
+  </si>
+  <si>
+    <t>FSN</t>
   </si>
 </sst>
 </file>
@@ -718,263 +718,263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{016C10D8-2D76-405E-82A3-3B52B55183E1}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="4"/>
-    <col min="4" max="4" width="12.08984375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="4"/>
-    <col min="7" max="7" width="12.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="253" width="8.7265625" style="4"/>
-    <col min="254" max="254" width="22.08984375" style="4" customWidth="1"/>
-    <col min="255" max="255" width="20.54296875" style="4" customWidth="1"/>
-    <col min="256" max="509" width="8.7265625" style="4"/>
-    <col min="510" max="510" width="22.08984375" style="4" customWidth="1"/>
-    <col min="511" max="511" width="20.54296875" style="4" customWidth="1"/>
-    <col min="512" max="765" width="8.7265625" style="4"/>
-    <col min="766" max="766" width="22.08984375" style="4" customWidth="1"/>
-    <col min="767" max="767" width="20.54296875" style="4" customWidth="1"/>
-    <col min="768" max="1021" width="8.7265625" style="4"/>
-    <col min="1022" max="1022" width="22.08984375" style="4" customWidth="1"/>
-    <col min="1023" max="1023" width="20.54296875" style="4" customWidth="1"/>
-    <col min="1024" max="1277" width="8.7265625" style="4"/>
-    <col min="1278" max="1278" width="22.08984375" style="4" customWidth="1"/>
-    <col min="1279" max="1279" width="20.54296875" style="4" customWidth="1"/>
-    <col min="1280" max="1533" width="8.7265625" style="4"/>
-    <col min="1534" max="1534" width="22.08984375" style="4" customWidth="1"/>
-    <col min="1535" max="1535" width="20.54296875" style="4" customWidth="1"/>
-    <col min="1536" max="1789" width="8.7265625" style="4"/>
-    <col min="1790" max="1790" width="22.08984375" style="4" customWidth="1"/>
-    <col min="1791" max="1791" width="20.54296875" style="4" customWidth="1"/>
-    <col min="1792" max="2045" width="8.7265625" style="4"/>
-    <col min="2046" max="2046" width="22.08984375" style="4" customWidth="1"/>
-    <col min="2047" max="2047" width="20.54296875" style="4" customWidth="1"/>
-    <col min="2048" max="2301" width="8.7265625" style="4"/>
-    <col min="2302" max="2302" width="22.08984375" style="4" customWidth="1"/>
-    <col min="2303" max="2303" width="20.54296875" style="4" customWidth="1"/>
-    <col min="2304" max="2557" width="8.7265625" style="4"/>
-    <col min="2558" max="2558" width="22.08984375" style="4" customWidth="1"/>
-    <col min="2559" max="2559" width="20.54296875" style="4" customWidth="1"/>
-    <col min="2560" max="2813" width="8.7265625" style="4"/>
-    <col min="2814" max="2814" width="22.08984375" style="4" customWidth="1"/>
-    <col min="2815" max="2815" width="20.54296875" style="4" customWidth="1"/>
-    <col min="2816" max="3069" width="8.7265625" style="4"/>
-    <col min="3070" max="3070" width="22.08984375" style="4" customWidth="1"/>
-    <col min="3071" max="3071" width="20.54296875" style="4" customWidth="1"/>
-    <col min="3072" max="3325" width="8.7265625" style="4"/>
-    <col min="3326" max="3326" width="22.08984375" style="4" customWidth="1"/>
-    <col min="3327" max="3327" width="20.54296875" style="4" customWidth="1"/>
-    <col min="3328" max="3581" width="8.7265625" style="4"/>
-    <col min="3582" max="3582" width="22.08984375" style="4" customWidth="1"/>
-    <col min="3583" max="3583" width="20.54296875" style="4" customWidth="1"/>
-    <col min="3584" max="3837" width="8.7265625" style="4"/>
-    <col min="3838" max="3838" width="22.08984375" style="4" customWidth="1"/>
-    <col min="3839" max="3839" width="20.54296875" style="4" customWidth="1"/>
-    <col min="3840" max="4093" width="8.7265625" style="4"/>
-    <col min="4094" max="4094" width="22.08984375" style="4" customWidth="1"/>
-    <col min="4095" max="4095" width="20.54296875" style="4" customWidth="1"/>
-    <col min="4096" max="4349" width="8.7265625" style="4"/>
-    <col min="4350" max="4350" width="22.08984375" style="4" customWidth="1"/>
-    <col min="4351" max="4351" width="20.54296875" style="4" customWidth="1"/>
-    <col min="4352" max="4605" width="8.7265625" style="4"/>
-    <col min="4606" max="4606" width="22.08984375" style="4" customWidth="1"/>
-    <col min="4607" max="4607" width="20.54296875" style="4" customWidth="1"/>
-    <col min="4608" max="4861" width="8.7265625" style="4"/>
-    <col min="4862" max="4862" width="22.08984375" style="4" customWidth="1"/>
-    <col min="4863" max="4863" width="20.54296875" style="4" customWidth="1"/>
-    <col min="4864" max="5117" width="8.7265625" style="4"/>
-    <col min="5118" max="5118" width="22.08984375" style="4" customWidth="1"/>
-    <col min="5119" max="5119" width="20.54296875" style="4" customWidth="1"/>
-    <col min="5120" max="5373" width="8.7265625" style="4"/>
-    <col min="5374" max="5374" width="22.08984375" style="4" customWidth="1"/>
-    <col min="5375" max="5375" width="20.54296875" style="4" customWidth="1"/>
-    <col min="5376" max="5629" width="8.7265625" style="4"/>
-    <col min="5630" max="5630" width="22.08984375" style="4" customWidth="1"/>
-    <col min="5631" max="5631" width="20.54296875" style="4" customWidth="1"/>
-    <col min="5632" max="5885" width="8.7265625" style="4"/>
-    <col min="5886" max="5886" width="22.08984375" style="4" customWidth="1"/>
-    <col min="5887" max="5887" width="20.54296875" style="4" customWidth="1"/>
-    <col min="5888" max="6141" width="8.7265625" style="4"/>
-    <col min="6142" max="6142" width="22.08984375" style="4" customWidth="1"/>
-    <col min="6143" max="6143" width="20.54296875" style="4" customWidth="1"/>
-    <col min="6144" max="6397" width="8.7265625" style="4"/>
-    <col min="6398" max="6398" width="22.08984375" style="4" customWidth="1"/>
-    <col min="6399" max="6399" width="20.54296875" style="4" customWidth="1"/>
-    <col min="6400" max="6653" width="8.7265625" style="4"/>
-    <col min="6654" max="6654" width="22.08984375" style="4" customWidth="1"/>
-    <col min="6655" max="6655" width="20.54296875" style="4" customWidth="1"/>
-    <col min="6656" max="6909" width="8.7265625" style="4"/>
-    <col min="6910" max="6910" width="22.08984375" style="4" customWidth="1"/>
-    <col min="6911" max="6911" width="20.54296875" style="4" customWidth="1"/>
-    <col min="6912" max="7165" width="8.7265625" style="4"/>
-    <col min="7166" max="7166" width="22.08984375" style="4" customWidth="1"/>
-    <col min="7167" max="7167" width="20.54296875" style="4" customWidth="1"/>
-    <col min="7168" max="7421" width="8.7265625" style="4"/>
-    <col min="7422" max="7422" width="22.08984375" style="4" customWidth="1"/>
-    <col min="7423" max="7423" width="20.54296875" style="4" customWidth="1"/>
-    <col min="7424" max="7677" width="8.7265625" style="4"/>
-    <col min="7678" max="7678" width="22.08984375" style="4" customWidth="1"/>
-    <col min="7679" max="7679" width="20.54296875" style="4" customWidth="1"/>
-    <col min="7680" max="7933" width="8.7265625" style="4"/>
-    <col min="7934" max="7934" width="22.08984375" style="4" customWidth="1"/>
-    <col min="7935" max="7935" width="20.54296875" style="4" customWidth="1"/>
-    <col min="7936" max="8189" width="8.7265625" style="4"/>
-    <col min="8190" max="8190" width="22.08984375" style="4" customWidth="1"/>
-    <col min="8191" max="8191" width="20.54296875" style="4" customWidth="1"/>
-    <col min="8192" max="8445" width="8.7265625" style="4"/>
-    <col min="8446" max="8446" width="22.08984375" style="4" customWidth="1"/>
-    <col min="8447" max="8447" width="20.54296875" style="4" customWidth="1"/>
-    <col min="8448" max="8701" width="8.7265625" style="4"/>
-    <col min="8702" max="8702" width="22.08984375" style="4" customWidth="1"/>
-    <col min="8703" max="8703" width="20.54296875" style="4" customWidth="1"/>
-    <col min="8704" max="8957" width="8.7265625" style="4"/>
-    <col min="8958" max="8958" width="22.08984375" style="4" customWidth="1"/>
-    <col min="8959" max="8959" width="20.54296875" style="4" customWidth="1"/>
-    <col min="8960" max="9213" width="8.7265625" style="4"/>
-    <col min="9214" max="9214" width="22.08984375" style="4" customWidth="1"/>
-    <col min="9215" max="9215" width="20.54296875" style="4" customWidth="1"/>
-    <col min="9216" max="9469" width="8.7265625" style="4"/>
-    <col min="9470" max="9470" width="22.08984375" style="4" customWidth="1"/>
-    <col min="9471" max="9471" width="20.54296875" style="4" customWidth="1"/>
-    <col min="9472" max="9725" width="8.7265625" style="4"/>
-    <col min="9726" max="9726" width="22.08984375" style="4" customWidth="1"/>
-    <col min="9727" max="9727" width="20.54296875" style="4" customWidth="1"/>
-    <col min="9728" max="9981" width="8.7265625" style="4"/>
-    <col min="9982" max="9982" width="22.08984375" style="4" customWidth="1"/>
-    <col min="9983" max="9983" width="20.54296875" style="4" customWidth="1"/>
-    <col min="9984" max="10237" width="8.7265625" style="4"/>
-    <col min="10238" max="10238" width="22.08984375" style="4" customWidth="1"/>
-    <col min="10239" max="10239" width="20.54296875" style="4" customWidth="1"/>
-    <col min="10240" max="10493" width="8.7265625" style="4"/>
-    <col min="10494" max="10494" width="22.08984375" style="4" customWidth="1"/>
-    <col min="10495" max="10495" width="20.54296875" style="4" customWidth="1"/>
-    <col min="10496" max="10749" width="8.7265625" style="4"/>
-    <col min="10750" max="10750" width="22.08984375" style="4" customWidth="1"/>
-    <col min="10751" max="10751" width="20.54296875" style="4" customWidth="1"/>
-    <col min="10752" max="11005" width="8.7265625" style="4"/>
-    <col min="11006" max="11006" width="22.08984375" style="4" customWidth="1"/>
-    <col min="11007" max="11007" width="20.54296875" style="4" customWidth="1"/>
-    <col min="11008" max="11261" width="8.7265625" style="4"/>
-    <col min="11262" max="11262" width="22.08984375" style="4" customWidth="1"/>
-    <col min="11263" max="11263" width="20.54296875" style="4" customWidth="1"/>
-    <col min="11264" max="11517" width="8.7265625" style="4"/>
-    <col min="11518" max="11518" width="22.08984375" style="4" customWidth="1"/>
-    <col min="11519" max="11519" width="20.54296875" style="4" customWidth="1"/>
-    <col min="11520" max="11773" width="8.7265625" style="4"/>
-    <col min="11774" max="11774" width="22.08984375" style="4" customWidth="1"/>
-    <col min="11775" max="11775" width="20.54296875" style="4" customWidth="1"/>
-    <col min="11776" max="12029" width="8.7265625" style="4"/>
-    <col min="12030" max="12030" width="22.08984375" style="4" customWidth="1"/>
-    <col min="12031" max="12031" width="20.54296875" style="4" customWidth="1"/>
-    <col min="12032" max="12285" width="8.7265625" style="4"/>
-    <col min="12286" max="12286" width="22.08984375" style="4" customWidth="1"/>
-    <col min="12287" max="12287" width="20.54296875" style="4" customWidth="1"/>
-    <col min="12288" max="12541" width="8.7265625" style="4"/>
-    <col min="12542" max="12542" width="22.08984375" style="4" customWidth="1"/>
-    <col min="12543" max="12543" width="20.54296875" style="4" customWidth="1"/>
-    <col min="12544" max="12797" width="8.7265625" style="4"/>
-    <col min="12798" max="12798" width="22.08984375" style="4" customWidth="1"/>
-    <col min="12799" max="12799" width="20.54296875" style="4" customWidth="1"/>
-    <col min="12800" max="13053" width="8.7265625" style="4"/>
-    <col min="13054" max="13054" width="22.08984375" style="4" customWidth="1"/>
-    <col min="13055" max="13055" width="20.54296875" style="4" customWidth="1"/>
-    <col min="13056" max="13309" width="8.7265625" style="4"/>
-    <col min="13310" max="13310" width="22.08984375" style="4" customWidth="1"/>
-    <col min="13311" max="13311" width="20.54296875" style="4" customWidth="1"/>
-    <col min="13312" max="13565" width="8.7265625" style="4"/>
-    <col min="13566" max="13566" width="22.08984375" style="4" customWidth="1"/>
-    <col min="13567" max="13567" width="20.54296875" style="4" customWidth="1"/>
-    <col min="13568" max="13821" width="8.7265625" style="4"/>
-    <col min="13822" max="13822" width="22.08984375" style="4" customWidth="1"/>
-    <col min="13823" max="13823" width="20.54296875" style="4" customWidth="1"/>
-    <col min="13824" max="14077" width="8.7265625" style="4"/>
-    <col min="14078" max="14078" width="22.08984375" style="4" customWidth="1"/>
-    <col min="14079" max="14079" width="20.54296875" style="4" customWidth="1"/>
-    <col min="14080" max="14333" width="8.7265625" style="4"/>
-    <col min="14334" max="14334" width="22.08984375" style="4" customWidth="1"/>
-    <col min="14335" max="14335" width="20.54296875" style="4" customWidth="1"/>
-    <col min="14336" max="14589" width="8.7265625" style="4"/>
-    <col min="14590" max="14590" width="22.08984375" style="4" customWidth="1"/>
-    <col min="14591" max="14591" width="20.54296875" style="4" customWidth="1"/>
-    <col min="14592" max="14845" width="8.7265625" style="4"/>
-    <col min="14846" max="14846" width="22.08984375" style="4" customWidth="1"/>
-    <col min="14847" max="14847" width="20.54296875" style="4" customWidth="1"/>
-    <col min="14848" max="15101" width="8.7265625" style="4"/>
-    <col min="15102" max="15102" width="22.08984375" style="4" customWidth="1"/>
-    <col min="15103" max="15103" width="20.54296875" style="4" customWidth="1"/>
-    <col min="15104" max="15357" width="8.7265625" style="4"/>
-    <col min="15358" max="15358" width="22.08984375" style="4" customWidth="1"/>
-    <col min="15359" max="15359" width="20.54296875" style="4" customWidth="1"/>
-    <col min="15360" max="15613" width="8.7265625" style="4"/>
-    <col min="15614" max="15614" width="22.08984375" style="4" customWidth="1"/>
-    <col min="15615" max="15615" width="20.54296875" style="4" customWidth="1"/>
-    <col min="15616" max="15869" width="8.7265625" style="4"/>
-    <col min="15870" max="15870" width="22.08984375" style="4" customWidth="1"/>
-    <col min="15871" max="15871" width="20.54296875" style="4" customWidth="1"/>
-    <col min="15872" max="16125" width="8.7265625" style="4"/>
-    <col min="16126" max="16126" width="22.08984375" style="4" customWidth="1"/>
-    <col min="16127" max="16127" width="20.54296875" style="4" customWidth="1"/>
-    <col min="16128" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="22.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="4"/>
+    <col min="4" max="4" width="12.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="4"/>
+    <col min="7" max="7" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="253" width="8.77734375" style="4"/>
+    <col min="254" max="254" width="22.109375" style="4" customWidth="1"/>
+    <col min="255" max="255" width="20.5546875" style="4" customWidth="1"/>
+    <col min="256" max="509" width="8.77734375" style="4"/>
+    <col min="510" max="510" width="22.109375" style="4" customWidth="1"/>
+    <col min="511" max="511" width="20.5546875" style="4" customWidth="1"/>
+    <col min="512" max="765" width="8.77734375" style="4"/>
+    <col min="766" max="766" width="22.109375" style="4" customWidth="1"/>
+    <col min="767" max="767" width="20.5546875" style="4" customWidth="1"/>
+    <col min="768" max="1021" width="8.77734375" style="4"/>
+    <col min="1022" max="1022" width="22.109375" style="4" customWidth="1"/>
+    <col min="1023" max="1023" width="20.5546875" style="4" customWidth="1"/>
+    <col min="1024" max="1277" width="8.77734375" style="4"/>
+    <col min="1278" max="1278" width="22.109375" style="4" customWidth="1"/>
+    <col min="1279" max="1279" width="20.5546875" style="4" customWidth="1"/>
+    <col min="1280" max="1533" width="8.77734375" style="4"/>
+    <col min="1534" max="1534" width="22.109375" style="4" customWidth="1"/>
+    <col min="1535" max="1535" width="20.5546875" style="4" customWidth="1"/>
+    <col min="1536" max="1789" width="8.77734375" style="4"/>
+    <col min="1790" max="1790" width="22.109375" style="4" customWidth="1"/>
+    <col min="1791" max="1791" width="20.5546875" style="4" customWidth="1"/>
+    <col min="1792" max="2045" width="8.77734375" style="4"/>
+    <col min="2046" max="2046" width="22.109375" style="4" customWidth="1"/>
+    <col min="2047" max="2047" width="20.5546875" style="4" customWidth="1"/>
+    <col min="2048" max="2301" width="8.77734375" style="4"/>
+    <col min="2302" max="2302" width="22.109375" style="4" customWidth="1"/>
+    <col min="2303" max="2303" width="20.5546875" style="4" customWidth="1"/>
+    <col min="2304" max="2557" width="8.77734375" style="4"/>
+    <col min="2558" max="2558" width="22.109375" style="4" customWidth="1"/>
+    <col min="2559" max="2559" width="20.5546875" style="4" customWidth="1"/>
+    <col min="2560" max="2813" width="8.77734375" style="4"/>
+    <col min="2814" max="2814" width="22.109375" style="4" customWidth="1"/>
+    <col min="2815" max="2815" width="20.5546875" style="4" customWidth="1"/>
+    <col min="2816" max="3069" width="8.77734375" style="4"/>
+    <col min="3070" max="3070" width="22.109375" style="4" customWidth="1"/>
+    <col min="3071" max="3071" width="20.5546875" style="4" customWidth="1"/>
+    <col min="3072" max="3325" width="8.77734375" style="4"/>
+    <col min="3326" max="3326" width="22.109375" style="4" customWidth="1"/>
+    <col min="3327" max="3327" width="20.5546875" style="4" customWidth="1"/>
+    <col min="3328" max="3581" width="8.77734375" style="4"/>
+    <col min="3582" max="3582" width="22.109375" style="4" customWidth="1"/>
+    <col min="3583" max="3583" width="20.5546875" style="4" customWidth="1"/>
+    <col min="3584" max="3837" width="8.77734375" style="4"/>
+    <col min="3838" max="3838" width="22.109375" style="4" customWidth="1"/>
+    <col min="3839" max="3839" width="20.5546875" style="4" customWidth="1"/>
+    <col min="3840" max="4093" width="8.77734375" style="4"/>
+    <col min="4094" max="4094" width="22.109375" style="4" customWidth="1"/>
+    <col min="4095" max="4095" width="20.5546875" style="4" customWidth="1"/>
+    <col min="4096" max="4349" width="8.77734375" style="4"/>
+    <col min="4350" max="4350" width="22.109375" style="4" customWidth="1"/>
+    <col min="4351" max="4351" width="20.5546875" style="4" customWidth="1"/>
+    <col min="4352" max="4605" width="8.77734375" style="4"/>
+    <col min="4606" max="4606" width="22.109375" style="4" customWidth="1"/>
+    <col min="4607" max="4607" width="20.5546875" style="4" customWidth="1"/>
+    <col min="4608" max="4861" width="8.77734375" style="4"/>
+    <col min="4862" max="4862" width="22.109375" style="4" customWidth="1"/>
+    <col min="4863" max="4863" width="20.5546875" style="4" customWidth="1"/>
+    <col min="4864" max="5117" width="8.77734375" style="4"/>
+    <col min="5118" max="5118" width="22.109375" style="4" customWidth="1"/>
+    <col min="5119" max="5119" width="20.5546875" style="4" customWidth="1"/>
+    <col min="5120" max="5373" width="8.77734375" style="4"/>
+    <col min="5374" max="5374" width="22.109375" style="4" customWidth="1"/>
+    <col min="5375" max="5375" width="20.5546875" style="4" customWidth="1"/>
+    <col min="5376" max="5629" width="8.77734375" style="4"/>
+    <col min="5630" max="5630" width="22.109375" style="4" customWidth="1"/>
+    <col min="5631" max="5631" width="20.5546875" style="4" customWidth="1"/>
+    <col min="5632" max="5885" width="8.77734375" style="4"/>
+    <col min="5886" max="5886" width="22.109375" style="4" customWidth="1"/>
+    <col min="5887" max="5887" width="20.5546875" style="4" customWidth="1"/>
+    <col min="5888" max="6141" width="8.77734375" style="4"/>
+    <col min="6142" max="6142" width="22.109375" style="4" customWidth="1"/>
+    <col min="6143" max="6143" width="20.5546875" style="4" customWidth="1"/>
+    <col min="6144" max="6397" width="8.77734375" style="4"/>
+    <col min="6398" max="6398" width="22.109375" style="4" customWidth="1"/>
+    <col min="6399" max="6399" width="20.5546875" style="4" customWidth="1"/>
+    <col min="6400" max="6653" width="8.77734375" style="4"/>
+    <col min="6654" max="6654" width="22.109375" style="4" customWidth="1"/>
+    <col min="6655" max="6655" width="20.5546875" style="4" customWidth="1"/>
+    <col min="6656" max="6909" width="8.77734375" style="4"/>
+    <col min="6910" max="6910" width="22.109375" style="4" customWidth="1"/>
+    <col min="6911" max="6911" width="20.5546875" style="4" customWidth="1"/>
+    <col min="6912" max="7165" width="8.77734375" style="4"/>
+    <col min="7166" max="7166" width="22.109375" style="4" customWidth="1"/>
+    <col min="7167" max="7167" width="20.5546875" style="4" customWidth="1"/>
+    <col min="7168" max="7421" width="8.77734375" style="4"/>
+    <col min="7422" max="7422" width="22.109375" style="4" customWidth="1"/>
+    <col min="7423" max="7423" width="20.5546875" style="4" customWidth="1"/>
+    <col min="7424" max="7677" width="8.77734375" style="4"/>
+    <col min="7678" max="7678" width="22.109375" style="4" customWidth="1"/>
+    <col min="7679" max="7679" width="20.5546875" style="4" customWidth="1"/>
+    <col min="7680" max="7933" width="8.77734375" style="4"/>
+    <col min="7934" max="7934" width="22.109375" style="4" customWidth="1"/>
+    <col min="7935" max="7935" width="20.5546875" style="4" customWidth="1"/>
+    <col min="7936" max="8189" width="8.77734375" style="4"/>
+    <col min="8190" max="8190" width="22.109375" style="4" customWidth="1"/>
+    <col min="8191" max="8191" width="20.5546875" style="4" customWidth="1"/>
+    <col min="8192" max="8445" width="8.77734375" style="4"/>
+    <col min="8446" max="8446" width="22.109375" style="4" customWidth="1"/>
+    <col min="8447" max="8447" width="20.5546875" style="4" customWidth="1"/>
+    <col min="8448" max="8701" width="8.77734375" style="4"/>
+    <col min="8702" max="8702" width="22.109375" style="4" customWidth="1"/>
+    <col min="8703" max="8703" width="20.5546875" style="4" customWidth="1"/>
+    <col min="8704" max="8957" width="8.77734375" style="4"/>
+    <col min="8958" max="8958" width="22.109375" style="4" customWidth="1"/>
+    <col min="8959" max="8959" width="20.5546875" style="4" customWidth="1"/>
+    <col min="8960" max="9213" width="8.77734375" style="4"/>
+    <col min="9214" max="9214" width="22.109375" style="4" customWidth="1"/>
+    <col min="9215" max="9215" width="20.5546875" style="4" customWidth="1"/>
+    <col min="9216" max="9469" width="8.77734375" style="4"/>
+    <col min="9470" max="9470" width="22.109375" style="4" customWidth="1"/>
+    <col min="9471" max="9471" width="20.5546875" style="4" customWidth="1"/>
+    <col min="9472" max="9725" width="8.77734375" style="4"/>
+    <col min="9726" max="9726" width="22.109375" style="4" customWidth="1"/>
+    <col min="9727" max="9727" width="20.5546875" style="4" customWidth="1"/>
+    <col min="9728" max="9981" width="8.77734375" style="4"/>
+    <col min="9982" max="9982" width="22.109375" style="4" customWidth="1"/>
+    <col min="9983" max="9983" width="20.5546875" style="4" customWidth="1"/>
+    <col min="9984" max="10237" width="8.77734375" style="4"/>
+    <col min="10238" max="10238" width="22.109375" style="4" customWidth="1"/>
+    <col min="10239" max="10239" width="20.5546875" style="4" customWidth="1"/>
+    <col min="10240" max="10493" width="8.77734375" style="4"/>
+    <col min="10494" max="10494" width="22.109375" style="4" customWidth="1"/>
+    <col min="10495" max="10495" width="20.5546875" style="4" customWidth="1"/>
+    <col min="10496" max="10749" width="8.77734375" style="4"/>
+    <col min="10750" max="10750" width="22.109375" style="4" customWidth="1"/>
+    <col min="10751" max="10751" width="20.5546875" style="4" customWidth="1"/>
+    <col min="10752" max="11005" width="8.77734375" style="4"/>
+    <col min="11006" max="11006" width="22.109375" style="4" customWidth="1"/>
+    <col min="11007" max="11007" width="20.5546875" style="4" customWidth="1"/>
+    <col min="11008" max="11261" width="8.77734375" style="4"/>
+    <col min="11262" max="11262" width="22.109375" style="4" customWidth="1"/>
+    <col min="11263" max="11263" width="20.5546875" style="4" customWidth="1"/>
+    <col min="11264" max="11517" width="8.77734375" style="4"/>
+    <col min="11518" max="11518" width="22.109375" style="4" customWidth="1"/>
+    <col min="11519" max="11519" width="20.5546875" style="4" customWidth="1"/>
+    <col min="11520" max="11773" width="8.77734375" style="4"/>
+    <col min="11774" max="11774" width="22.109375" style="4" customWidth="1"/>
+    <col min="11775" max="11775" width="20.5546875" style="4" customWidth="1"/>
+    <col min="11776" max="12029" width="8.77734375" style="4"/>
+    <col min="12030" max="12030" width="22.109375" style="4" customWidth="1"/>
+    <col min="12031" max="12031" width="20.5546875" style="4" customWidth="1"/>
+    <col min="12032" max="12285" width="8.77734375" style="4"/>
+    <col min="12286" max="12286" width="22.109375" style="4" customWidth="1"/>
+    <col min="12287" max="12287" width="20.5546875" style="4" customWidth="1"/>
+    <col min="12288" max="12541" width="8.77734375" style="4"/>
+    <col min="12542" max="12542" width="22.109375" style="4" customWidth="1"/>
+    <col min="12543" max="12543" width="20.5546875" style="4" customWidth="1"/>
+    <col min="12544" max="12797" width="8.77734375" style="4"/>
+    <col min="12798" max="12798" width="22.109375" style="4" customWidth="1"/>
+    <col min="12799" max="12799" width="20.5546875" style="4" customWidth="1"/>
+    <col min="12800" max="13053" width="8.77734375" style="4"/>
+    <col min="13054" max="13054" width="22.109375" style="4" customWidth="1"/>
+    <col min="13055" max="13055" width="20.5546875" style="4" customWidth="1"/>
+    <col min="13056" max="13309" width="8.77734375" style="4"/>
+    <col min="13310" max="13310" width="22.109375" style="4" customWidth="1"/>
+    <col min="13311" max="13311" width="20.5546875" style="4" customWidth="1"/>
+    <col min="13312" max="13565" width="8.77734375" style="4"/>
+    <col min="13566" max="13566" width="22.109375" style="4" customWidth="1"/>
+    <col min="13567" max="13567" width="20.5546875" style="4" customWidth="1"/>
+    <col min="13568" max="13821" width="8.77734375" style="4"/>
+    <col min="13822" max="13822" width="22.109375" style="4" customWidth="1"/>
+    <col min="13823" max="13823" width="20.5546875" style="4" customWidth="1"/>
+    <col min="13824" max="14077" width="8.77734375" style="4"/>
+    <col min="14078" max="14078" width="22.109375" style="4" customWidth="1"/>
+    <col min="14079" max="14079" width="20.5546875" style="4" customWidth="1"/>
+    <col min="14080" max="14333" width="8.77734375" style="4"/>
+    <col min="14334" max="14334" width="22.109375" style="4" customWidth="1"/>
+    <col min="14335" max="14335" width="20.5546875" style="4" customWidth="1"/>
+    <col min="14336" max="14589" width="8.77734375" style="4"/>
+    <col min="14590" max="14590" width="22.109375" style="4" customWidth="1"/>
+    <col min="14591" max="14591" width="20.5546875" style="4" customWidth="1"/>
+    <col min="14592" max="14845" width="8.77734375" style="4"/>
+    <col min="14846" max="14846" width="22.109375" style="4" customWidth="1"/>
+    <col min="14847" max="14847" width="20.5546875" style="4" customWidth="1"/>
+    <col min="14848" max="15101" width="8.77734375" style="4"/>
+    <col min="15102" max="15102" width="22.109375" style="4" customWidth="1"/>
+    <col min="15103" max="15103" width="20.5546875" style="4" customWidth="1"/>
+    <col min="15104" max="15357" width="8.77734375" style="4"/>
+    <col min="15358" max="15358" width="22.109375" style="4" customWidth="1"/>
+    <col min="15359" max="15359" width="20.5546875" style="4" customWidth="1"/>
+    <col min="15360" max="15613" width="8.77734375" style="4"/>
+    <col min="15614" max="15614" width="22.109375" style="4" customWidth="1"/>
+    <col min="15615" max="15615" width="20.5546875" style="4" customWidth="1"/>
+    <col min="15616" max="15869" width="8.77734375" style="4"/>
+    <col min="15870" max="15870" width="22.109375" style="4" customWidth="1"/>
+    <col min="15871" max="15871" width="20.5546875" style="4" customWidth="1"/>
+    <col min="15872" max="16125" width="8.77734375" style="4"/>
+    <col min="16126" max="16126" width="22.109375" style="4" customWidth="1"/>
+    <col min="16127" max="16127" width="20.5546875" style="4" customWidth="1"/>
+    <col min="16128" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="1">
         <v>350</v>
@@ -983,27 +983,27 @@
         <v>413</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="H3" s="1">
         <v>400</v>
@@ -1012,27 +1012,27 @@
         <v>472</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="H4" s="1">
         <v>439.83</v>
@@ -1041,27 +1041,27 @@
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="H5" s="1">
         <v>350</v>
@@ -1070,27 +1070,27 @@
         <v>413</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1">
         <v>400</v>
@@ -1099,27 +1099,27 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="H7" s="1">
         <v>350</v>
@@ -1128,27 +1128,27 @@
         <v>413</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="G8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1">
         <v>400</v>
@@ -1157,27 +1157,27 @@
         <v>472</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="H9" s="1">
         <v>400</v>
@@ -1186,27 +1186,27 @@
         <v>472</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="H10" s="1">
         <v>439.83</v>
@@ -1215,27 +1215,27 @@
         <v>519</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="H11" s="11">
         <v>259.32</v>
@@ -1244,9 +1244,9 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1254,20 +1254,20 @@
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1275,20 +1275,20 @@
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1296,20 +1296,20 @@
         <v>2</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="55.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1317,20 +1317,20 @@
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1338,34 +1338,34 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -1379,263 +1379,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DBD3F5-09C6-44D1-9F16-190062048B43}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.81640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" style="4"/>
-    <col min="4" max="4" width="14.81640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="16"/>
-    <col min="7" max="7" width="12.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="251" width="8.7265625" style="4"/>
-    <col min="252" max="252" width="21.81640625" style="4" customWidth="1"/>
-    <col min="253" max="253" width="26.08984375" style="4" customWidth="1"/>
-    <col min="254" max="507" width="8.7265625" style="4"/>
-    <col min="508" max="508" width="21.81640625" style="4" customWidth="1"/>
-    <col min="509" max="509" width="26.08984375" style="4" customWidth="1"/>
-    <col min="510" max="763" width="8.7265625" style="4"/>
-    <col min="764" max="764" width="21.81640625" style="4" customWidth="1"/>
-    <col min="765" max="765" width="26.08984375" style="4" customWidth="1"/>
-    <col min="766" max="1019" width="8.7265625" style="4"/>
-    <col min="1020" max="1020" width="21.81640625" style="4" customWidth="1"/>
-    <col min="1021" max="1021" width="26.08984375" style="4" customWidth="1"/>
-    <col min="1022" max="1275" width="8.7265625" style="4"/>
-    <col min="1276" max="1276" width="21.81640625" style="4" customWidth="1"/>
-    <col min="1277" max="1277" width="26.08984375" style="4" customWidth="1"/>
-    <col min="1278" max="1531" width="8.7265625" style="4"/>
-    <col min="1532" max="1532" width="21.81640625" style="4" customWidth="1"/>
-    <col min="1533" max="1533" width="26.08984375" style="4" customWidth="1"/>
-    <col min="1534" max="1787" width="8.7265625" style="4"/>
-    <col min="1788" max="1788" width="21.81640625" style="4" customWidth="1"/>
-    <col min="1789" max="1789" width="26.08984375" style="4" customWidth="1"/>
-    <col min="1790" max="2043" width="8.7265625" style="4"/>
-    <col min="2044" max="2044" width="21.81640625" style="4" customWidth="1"/>
-    <col min="2045" max="2045" width="26.08984375" style="4" customWidth="1"/>
-    <col min="2046" max="2299" width="8.7265625" style="4"/>
-    <col min="2300" max="2300" width="21.81640625" style="4" customWidth="1"/>
-    <col min="2301" max="2301" width="26.08984375" style="4" customWidth="1"/>
-    <col min="2302" max="2555" width="8.7265625" style="4"/>
-    <col min="2556" max="2556" width="21.81640625" style="4" customWidth="1"/>
-    <col min="2557" max="2557" width="26.08984375" style="4" customWidth="1"/>
-    <col min="2558" max="2811" width="8.7265625" style="4"/>
-    <col min="2812" max="2812" width="21.81640625" style="4" customWidth="1"/>
-    <col min="2813" max="2813" width="26.08984375" style="4" customWidth="1"/>
-    <col min="2814" max="3067" width="8.7265625" style="4"/>
-    <col min="3068" max="3068" width="21.81640625" style="4" customWidth="1"/>
-    <col min="3069" max="3069" width="26.08984375" style="4" customWidth="1"/>
-    <col min="3070" max="3323" width="8.7265625" style="4"/>
-    <col min="3324" max="3324" width="21.81640625" style="4" customWidth="1"/>
-    <col min="3325" max="3325" width="26.08984375" style="4" customWidth="1"/>
-    <col min="3326" max="3579" width="8.7265625" style="4"/>
-    <col min="3580" max="3580" width="21.81640625" style="4" customWidth="1"/>
-    <col min="3581" max="3581" width="26.08984375" style="4" customWidth="1"/>
-    <col min="3582" max="3835" width="8.7265625" style="4"/>
-    <col min="3836" max="3836" width="21.81640625" style="4" customWidth="1"/>
-    <col min="3837" max="3837" width="26.08984375" style="4" customWidth="1"/>
-    <col min="3838" max="4091" width="8.7265625" style="4"/>
-    <col min="4092" max="4092" width="21.81640625" style="4" customWidth="1"/>
-    <col min="4093" max="4093" width="26.08984375" style="4" customWidth="1"/>
-    <col min="4094" max="4347" width="8.7265625" style="4"/>
-    <col min="4348" max="4348" width="21.81640625" style="4" customWidth="1"/>
-    <col min="4349" max="4349" width="26.08984375" style="4" customWidth="1"/>
-    <col min="4350" max="4603" width="8.7265625" style="4"/>
-    <col min="4604" max="4604" width="21.81640625" style="4" customWidth="1"/>
-    <col min="4605" max="4605" width="26.08984375" style="4" customWidth="1"/>
-    <col min="4606" max="4859" width="8.7265625" style="4"/>
-    <col min="4860" max="4860" width="21.81640625" style="4" customWidth="1"/>
-    <col min="4861" max="4861" width="26.08984375" style="4" customWidth="1"/>
-    <col min="4862" max="5115" width="8.7265625" style="4"/>
-    <col min="5116" max="5116" width="21.81640625" style="4" customWidth="1"/>
-    <col min="5117" max="5117" width="26.08984375" style="4" customWidth="1"/>
-    <col min="5118" max="5371" width="8.7265625" style="4"/>
-    <col min="5372" max="5372" width="21.81640625" style="4" customWidth="1"/>
-    <col min="5373" max="5373" width="26.08984375" style="4" customWidth="1"/>
-    <col min="5374" max="5627" width="8.7265625" style="4"/>
-    <col min="5628" max="5628" width="21.81640625" style="4" customWidth="1"/>
-    <col min="5629" max="5629" width="26.08984375" style="4" customWidth="1"/>
-    <col min="5630" max="5883" width="8.7265625" style="4"/>
-    <col min="5884" max="5884" width="21.81640625" style="4" customWidth="1"/>
-    <col min="5885" max="5885" width="26.08984375" style="4" customWidth="1"/>
-    <col min="5886" max="6139" width="8.7265625" style="4"/>
-    <col min="6140" max="6140" width="21.81640625" style="4" customWidth="1"/>
-    <col min="6141" max="6141" width="26.08984375" style="4" customWidth="1"/>
-    <col min="6142" max="6395" width="8.7265625" style="4"/>
-    <col min="6396" max="6396" width="21.81640625" style="4" customWidth="1"/>
-    <col min="6397" max="6397" width="26.08984375" style="4" customWidth="1"/>
-    <col min="6398" max="6651" width="8.7265625" style="4"/>
-    <col min="6652" max="6652" width="21.81640625" style="4" customWidth="1"/>
-    <col min="6653" max="6653" width="26.08984375" style="4" customWidth="1"/>
-    <col min="6654" max="6907" width="8.7265625" style="4"/>
-    <col min="6908" max="6908" width="21.81640625" style="4" customWidth="1"/>
-    <col min="6909" max="6909" width="26.08984375" style="4" customWidth="1"/>
-    <col min="6910" max="7163" width="8.7265625" style="4"/>
-    <col min="7164" max="7164" width="21.81640625" style="4" customWidth="1"/>
-    <col min="7165" max="7165" width="26.08984375" style="4" customWidth="1"/>
-    <col min="7166" max="7419" width="8.7265625" style="4"/>
-    <col min="7420" max="7420" width="21.81640625" style="4" customWidth="1"/>
-    <col min="7421" max="7421" width="26.08984375" style="4" customWidth="1"/>
-    <col min="7422" max="7675" width="8.7265625" style="4"/>
-    <col min="7676" max="7676" width="21.81640625" style="4" customWidth="1"/>
-    <col min="7677" max="7677" width="26.08984375" style="4" customWidth="1"/>
-    <col min="7678" max="7931" width="8.7265625" style="4"/>
-    <col min="7932" max="7932" width="21.81640625" style="4" customWidth="1"/>
-    <col min="7933" max="7933" width="26.08984375" style="4" customWidth="1"/>
-    <col min="7934" max="8187" width="8.7265625" style="4"/>
-    <col min="8188" max="8188" width="21.81640625" style="4" customWidth="1"/>
-    <col min="8189" max="8189" width="26.08984375" style="4" customWidth="1"/>
-    <col min="8190" max="8443" width="8.7265625" style="4"/>
-    <col min="8444" max="8444" width="21.81640625" style="4" customWidth="1"/>
-    <col min="8445" max="8445" width="26.08984375" style="4" customWidth="1"/>
-    <col min="8446" max="8699" width="8.7265625" style="4"/>
-    <col min="8700" max="8700" width="21.81640625" style="4" customWidth="1"/>
-    <col min="8701" max="8701" width="26.08984375" style="4" customWidth="1"/>
-    <col min="8702" max="8955" width="8.7265625" style="4"/>
-    <col min="8956" max="8956" width="21.81640625" style="4" customWidth="1"/>
-    <col min="8957" max="8957" width="26.08984375" style="4" customWidth="1"/>
-    <col min="8958" max="9211" width="8.7265625" style="4"/>
-    <col min="9212" max="9212" width="21.81640625" style="4" customWidth="1"/>
-    <col min="9213" max="9213" width="26.08984375" style="4" customWidth="1"/>
-    <col min="9214" max="9467" width="8.7265625" style="4"/>
-    <col min="9468" max="9468" width="21.81640625" style="4" customWidth="1"/>
-    <col min="9469" max="9469" width="26.08984375" style="4" customWidth="1"/>
-    <col min="9470" max="9723" width="8.7265625" style="4"/>
-    <col min="9724" max="9724" width="21.81640625" style="4" customWidth="1"/>
-    <col min="9725" max="9725" width="26.08984375" style="4" customWidth="1"/>
-    <col min="9726" max="9979" width="8.7265625" style="4"/>
-    <col min="9980" max="9980" width="21.81640625" style="4" customWidth="1"/>
-    <col min="9981" max="9981" width="26.08984375" style="4" customWidth="1"/>
-    <col min="9982" max="10235" width="8.7265625" style="4"/>
-    <col min="10236" max="10236" width="21.81640625" style="4" customWidth="1"/>
-    <col min="10237" max="10237" width="26.08984375" style="4" customWidth="1"/>
-    <col min="10238" max="10491" width="8.7265625" style="4"/>
-    <col min="10492" max="10492" width="21.81640625" style="4" customWidth="1"/>
-    <col min="10493" max="10493" width="26.08984375" style="4" customWidth="1"/>
-    <col min="10494" max="10747" width="8.7265625" style="4"/>
-    <col min="10748" max="10748" width="21.81640625" style="4" customWidth="1"/>
-    <col min="10749" max="10749" width="26.08984375" style="4" customWidth="1"/>
-    <col min="10750" max="11003" width="8.7265625" style="4"/>
-    <col min="11004" max="11004" width="21.81640625" style="4" customWidth="1"/>
-    <col min="11005" max="11005" width="26.08984375" style="4" customWidth="1"/>
-    <col min="11006" max="11259" width="8.7265625" style="4"/>
-    <col min="11260" max="11260" width="21.81640625" style="4" customWidth="1"/>
-    <col min="11261" max="11261" width="26.08984375" style="4" customWidth="1"/>
-    <col min="11262" max="11515" width="8.7265625" style="4"/>
-    <col min="11516" max="11516" width="21.81640625" style="4" customWidth="1"/>
-    <col min="11517" max="11517" width="26.08984375" style="4" customWidth="1"/>
-    <col min="11518" max="11771" width="8.7265625" style="4"/>
-    <col min="11772" max="11772" width="21.81640625" style="4" customWidth="1"/>
-    <col min="11773" max="11773" width="26.08984375" style="4" customWidth="1"/>
-    <col min="11774" max="12027" width="8.7265625" style="4"/>
-    <col min="12028" max="12028" width="21.81640625" style="4" customWidth="1"/>
-    <col min="12029" max="12029" width="26.08984375" style="4" customWidth="1"/>
-    <col min="12030" max="12283" width="8.7265625" style="4"/>
-    <col min="12284" max="12284" width="21.81640625" style="4" customWidth="1"/>
-    <col min="12285" max="12285" width="26.08984375" style="4" customWidth="1"/>
-    <col min="12286" max="12539" width="8.7265625" style="4"/>
-    <col min="12540" max="12540" width="21.81640625" style="4" customWidth="1"/>
-    <col min="12541" max="12541" width="26.08984375" style="4" customWidth="1"/>
-    <col min="12542" max="12795" width="8.7265625" style="4"/>
-    <col min="12796" max="12796" width="21.81640625" style="4" customWidth="1"/>
-    <col min="12797" max="12797" width="26.08984375" style="4" customWidth="1"/>
-    <col min="12798" max="13051" width="8.7265625" style="4"/>
-    <col min="13052" max="13052" width="21.81640625" style="4" customWidth="1"/>
-    <col min="13053" max="13053" width="26.08984375" style="4" customWidth="1"/>
-    <col min="13054" max="13307" width="8.7265625" style="4"/>
-    <col min="13308" max="13308" width="21.81640625" style="4" customWidth="1"/>
-    <col min="13309" max="13309" width="26.08984375" style="4" customWidth="1"/>
-    <col min="13310" max="13563" width="8.7265625" style="4"/>
-    <col min="13564" max="13564" width="21.81640625" style="4" customWidth="1"/>
-    <col min="13565" max="13565" width="26.08984375" style="4" customWidth="1"/>
-    <col min="13566" max="13819" width="8.7265625" style="4"/>
-    <col min="13820" max="13820" width="21.81640625" style="4" customWidth="1"/>
-    <col min="13821" max="13821" width="26.08984375" style="4" customWidth="1"/>
-    <col min="13822" max="14075" width="8.7265625" style="4"/>
-    <col min="14076" max="14076" width="21.81640625" style="4" customWidth="1"/>
-    <col min="14077" max="14077" width="26.08984375" style="4" customWidth="1"/>
-    <col min="14078" max="14331" width="8.7265625" style="4"/>
-    <col min="14332" max="14332" width="21.81640625" style="4" customWidth="1"/>
-    <col min="14333" max="14333" width="26.08984375" style="4" customWidth="1"/>
-    <col min="14334" max="14587" width="8.7265625" style="4"/>
-    <col min="14588" max="14588" width="21.81640625" style="4" customWidth="1"/>
-    <col min="14589" max="14589" width="26.08984375" style="4" customWidth="1"/>
-    <col min="14590" max="14843" width="8.7265625" style="4"/>
-    <col min="14844" max="14844" width="21.81640625" style="4" customWidth="1"/>
-    <col min="14845" max="14845" width="26.08984375" style="4" customWidth="1"/>
-    <col min="14846" max="15099" width="8.7265625" style="4"/>
-    <col min="15100" max="15100" width="21.81640625" style="4" customWidth="1"/>
-    <col min="15101" max="15101" width="26.08984375" style="4" customWidth="1"/>
-    <col min="15102" max="15355" width="8.7265625" style="4"/>
-    <col min="15356" max="15356" width="21.81640625" style="4" customWidth="1"/>
-    <col min="15357" max="15357" width="26.08984375" style="4" customWidth="1"/>
-    <col min="15358" max="15611" width="8.7265625" style="4"/>
-    <col min="15612" max="15612" width="21.81640625" style="4" customWidth="1"/>
-    <col min="15613" max="15613" width="26.08984375" style="4" customWidth="1"/>
-    <col min="15614" max="15867" width="8.7265625" style="4"/>
-    <col min="15868" max="15868" width="21.81640625" style="4" customWidth="1"/>
-    <col min="15869" max="15869" width="26.08984375" style="4" customWidth="1"/>
-    <col min="15870" max="16123" width="8.7265625" style="4"/>
-    <col min="16124" max="16124" width="21.81640625" style="4" customWidth="1"/>
-    <col min="16125" max="16125" width="26.08984375" style="4" customWidth="1"/>
-    <col min="16126" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="21.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" style="4"/>
+    <col min="4" max="4" width="14.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" style="16"/>
+    <col min="7" max="7" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="251" width="8.77734375" style="4"/>
+    <col min="252" max="252" width="21.77734375" style="4" customWidth="1"/>
+    <col min="253" max="253" width="26.109375" style="4" customWidth="1"/>
+    <col min="254" max="507" width="8.77734375" style="4"/>
+    <col min="508" max="508" width="21.77734375" style="4" customWidth="1"/>
+    <col min="509" max="509" width="26.109375" style="4" customWidth="1"/>
+    <col min="510" max="763" width="8.77734375" style="4"/>
+    <col min="764" max="764" width="21.77734375" style="4" customWidth="1"/>
+    <col min="765" max="765" width="26.109375" style="4" customWidth="1"/>
+    <col min="766" max="1019" width="8.77734375" style="4"/>
+    <col min="1020" max="1020" width="21.77734375" style="4" customWidth="1"/>
+    <col min="1021" max="1021" width="26.109375" style="4" customWidth="1"/>
+    <col min="1022" max="1275" width="8.77734375" style="4"/>
+    <col min="1276" max="1276" width="21.77734375" style="4" customWidth="1"/>
+    <col min="1277" max="1277" width="26.109375" style="4" customWidth="1"/>
+    <col min="1278" max="1531" width="8.77734375" style="4"/>
+    <col min="1532" max="1532" width="21.77734375" style="4" customWidth="1"/>
+    <col min="1533" max="1533" width="26.109375" style="4" customWidth="1"/>
+    <col min="1534" max="1787" width="8.77734375" style="4"/>
+    <col min="1788" max="1788" width="21.77734375" style="4" customWidth="1"/>
+    <col min="1789" max="1789" width="26.109375" style="4" customWidth="1"/>
+    <col min="1790" max="2043" width="8.77734375" style="4"/>
+    <col min="2044" max="2044" width="21.77734375" style="4" customWidth="1"/>
+    <col min="2045" max="2045" width="26.109375" style="4" customWidth="1"/>
+    <col min="2046" max="2299" width="8.77734375" style="4"/>
+    <col min="2300" max="2300" width="21.77734375" style="4" customWidth="1"/>
+    <col min="2301" max="2301" width="26.109375" style="4" customWidth="1"/>
+    <col min="2302" max="2555" width="8.77734375" style="4"/>
+    <col min="2556" max="2556" width="21.77734375" style="4" customWidth="1"/>
+    <col min="2557" max="2557" width="26.109375" style="4" customWidth="1"/>
+    <col min="2558" max="2811" width="8.77734375" style="4"/>
+    <col min="2812" max="2812" width="21.77734375" style="4" customWidth="1"/>
+    <col min="2813" max="2813" width="26.109375" style="4" customWidth="1"/>
+    <col min="2814" max="3067" width="8.77734375" style="4"/>
+    <col min="3068" max="3068" width="21.77734375" style="4" customWidth="1"/>
+    <col min="3069" max="3069" width="26.109375" style="4" customWidth="1"/>
+    <col min="3070" max="3323" width="8.77734375" style="4"/>
+    <col min="3324" max="3324" width="21.77734375" style="4" customWidth="1"/>
+    <col min="3325" max="3325" width="26.109375" style="4" customWidth="1"/>
+    <col min="3326" max="3579" width="8.77734375" style="4"/>
+    <col min="3580" max="3580" width="21.77734375" style="4" customWidth="1"/>
+    <col min="3581" max="3581" width="26.109375" style="4" customWidth="1"/>
+    <col min="3582" max="3835" width="8.77734375" style="4"/>
+    <col min="3836" max="3836" width="21.77734375" style="4" customWidth="1"/>
+    <col min="3837" max="3837" width="26.109375" style="4" customWidth="1"/>
+    <col min="3838" max="4091" width="8.77734375" style="4"/>
+    <col min="4092" max="4092" width="21.77734375" style="4" customWidth="1"/>
+    <col min="4093" max="4093" width="26.109375" style="4" customWidth="1"/>
+    <col min="4094" max="4347" width="8.77734375" style="4"/>
+    <col min="4348" max="4348" width="21.77734375" style="4" customWidth="1"/>
+    <col min="4349" max="4349" width="26.109375" style="4" customWidth="1"/>
+    <col min="4350" max="4603" width="8.77734375" style="4"/>
+    <col min="4604" max="4604" width="21.77734375" style="4" customWidth="1"/>
+    <col min="4605" max="4605" width="26.109375" style="4" customWidth="1"/>
+    <col min="4606" max="4859" width="8.77734375" style="4"/>
+    <col min="4860" max="4860" width="21.77734375" style="4" customWidth="1"/>
+    <col min="4861" max="4861" width="26.109375" style="4" customWidth="1"/>
+    <col min="4862" max="5115" width="8.77734375" style="4"/>
+    <col min="5116" max="5116" width="21.77734375" style="4" customWidth="1"/>
+    <col min="5117" max="5117" width="26.109375" style="4" customWidth="1"/>
+    <col min="5118" max="5371" width="8.77734375" style="4"/>
+    <col min="5372" max="5372" width="21.77734375" style="4" customWidth="1"/>
+    <col min="5373" max="5373" width="26.109375" style="4" customWidth="1"/>
+    <col min="5374" max="5627" width="8.77734375" style="4"/>
+    <col min="5628" max="5628" width="21.77734375" style="4" customWidth="1"/>
+    <col min="5629" max="5629" width="26.109375" style="4" customWidth="1"/>
+    <col min="5630" max="5883" width="8.77734375" style="4"/>
+    <col min="5884" max="5884" width="21.77734375" style="4" customWidth="1"/>
+    <col min="5885" max="5885" width="26.109375" style="4" customWidth="1"/>
+    <col min="5886" max="6139" width="8.77734375" style="4"/>
+    <col min="6140" max="6140" width="21.77734375" style="4" customWidth="1"/>
+    <col min="6141" max="6141" width="26.109375" style="4" customWidth="1"/>
+    <col min="6142" max="6395" width="8.77734375" style="4"/>
+    <col min="6396" max="6396" width="21.77734375" style="4" customWidth="1"/>
+    <col min="6397" max="6397" width="26.109375" style="4" customWidth="1"/>
+    <col min="6398" max="6651" width="8.77734375" style="4"/>
+    <col min="6652" max="6652" width="21.77734375" style="4" customWidth="1"/>
+    <col min="6653" max="6653" width="26.109375" style="4" customWidth="1"/>
+    <col min="6654" max="6907" width="8.77734375" style="4"/>
+    <col min="6908" max="6908" width="21.77734375" style="4" customWidth="1"/>
+    <col min="6909" max="6909" width="26.109375" style="4" customWidth="1"/>
+    <col min="6910" max="7163" width="8.77734375" style="4"/>
+    <col min="7164" max="7164" width="21.77734375" style="4" customWidth="1"/>
+    <col min="7165" max="7165" width="26.109375" style="4" customWidth="1"/>
+    <col min="7166" max="7419" width="8.77734375" style="4"/>
+    <col min="7420" max="7420" width="21.77734375" style="4" customWidth="1"/>
+    <col min="7421" max="7421" width="26.109375" style="4" customWidth="1"/>
+    <col min="7422" max="7675" width="8.77734375" style="4"/>
+    <col min="7676" max="7676" width="21.77734375" style="4" customWidth="1"/>
+    <col min="7677" max="7677" width="26.109375" style="4" customWidth="1"/>
+    <col min="7678" max="7931" width="8.77734375" style="4"/>
+    <col min="7932" max="7932" width="21.77734375" style="4" customWidth="1"/>
+    <col min="7933" max="7933" width="26.109375" style="4" customWidth="1"/>
+    <col min="7934" max="8187" width="8.77734375" style="4"/>
+    <col min="8188" max="8188" width="21.77734375" style="4" customWidth="1"/>
+    <col min="8189" max="8189" width="26.109375" style="4" customWidth="1"/>
+    <col min="8190" max="8443" width="8.77734375" style="4"/>
+    <col min="8444" max="8444" width="21.77734375" style="4" customWidth="1"/>
+    <col min="8445" max="8445" width="26.109375" style="4" customWidth="1"/>
+    <col min="8446" max="8699" width="8.77734375" style="4"/>
+    <col min="8700" max="8700" width="21.77734375" style="4" customWidth="1"/>
+    <col min="8701" max="8701" width="26.109375" style="4" customWidth="1"/>
+    <col min="8702" max="8955" width="8.77734375" style="4"/>
+    <col min="8956" max="8956" width="21.77734375" style="4" customWidth="1"/>
+    <col min="8957" max="8957" width="26.109375" style="4" customWidth="1"/>
+    <col min="8958" max="9211" width="8.77734375" style="4"/>
+    <col min="9212" max="9212" width="21.77734375" style="4" customWidth="1"/>
+    <col min="9213" max="9213" width="26.109375" style="4" customWidth="1"/>
+    <col min="9214" max="9467" width="8.77734375" style="4"/>
+    <col min="9468" max="9468" width="21.77734375" style="4" customWidth="1"/>
+    <col min="9469" max="9469" width="26.109375" style="4" customWidth="1"/>
+    <col min="9470" max="9723" width="8.77734375" style="4"/>
+    <col min="9724" max="9724" width="21.77734375" style="4" customWidth="1"/>
+    <col min="9725" max="9725" width="26.109375" style="4" customWidth="1"/>
+    <col min="9726" max="9979" width="8.77734375" style="4"/>
+    <col min="9980" max="9980" width="21.77734375" style="4" customWidth="1"/>
+    <col min="9981" max="9981" width="26.109375" style="4" customWidth="1"/>
+    <col min="9982" max="10235" width="8.77734375" style="4"/>
+    <col min="10236" max="10236" width="21.77734375" style="4" customWidth="1"/>
+    <col min="10237" max="10237" width="26.109375" style="4" customWidth="1"/>
+    <col min="10238" max="10491" width="8.77734375" style="4"/>
+    <col min="10492" max="10492" width="21.77734375" style="4" customWidth="1"/>
+    <col min="10493" max="10493" width="26.109375" style="4" customWidth="1"/>
+    <col min="10494" max="10747" width="8.77734375" style="4"/>
+    <col min="10748" max="10748" width="21.77734375" style="4" customWidth="1"/>
+    <col min="10749" max="10749" width="26.109375" style="4" customWidth="1"/>
+    <col min="10750" max="11003" width="8.77734375" style="4"/>
+    <col min="11004" max="11004" width="21.77734375" style="4" customWidth="1"/>
+    <col min="11005" max="11005" width="26.109375" style="4" customWidth="1"/>
+    <col min="11006" max="11259" width="8.77734375" style="4"/>
+    <col min="11260" max="11260" width="21.77734375" style="4" customWidth="1"/>
+    <col min="11261" max="11261" width="26.109375" style="4" customWidth="1"/>
+    <col min="11262" max="11515" width="8.77734375" style="4"/>
+    <col min="11516" max="11516" width="21.77734375" style="4" customWidth="1"/>
+    <col min="11517" max="11517" width="26.109375" style="4" customWidth="1"/>
+    <col min="11518" max="11771" width="8.77734375" style="4"/>
+    <col min="11772" max="11772" width="21.77734375" style="4" customWidth="1"/>
+    <col min="11773" max="11773" width="26.109375" style="4" customWidth="1"/>
+    <col min="11774" max="12027" width="8.77734375" style="4"/>
+    <col min="12028" max="12028" width="21.77734375" style="4" customWidth="1"/>
+    <col min="12029" max="12029" width="26.109375" style="4" customWidth="1"/>
+    <col min="12030" max="12283" width="8.77734375" style="4"/>
+    <col min="12284" max="12284" width="21.77734375" style="4" customWidth="1"/>
+    <col min="12285" max="12285" width="26.109375" style="4" customWidth="1"/>
+    <col min="12286" max="12539" width="8.77734375" style="4"/>
+    <col min="12540" max="12540" width="21.77734375" style="4" customWidth="1"/>
+    <col min="12541" max="12541" width="26.109375" style="4" customWidth="1"/>
+    <col min="12542" max="12795" width="8.77734375" style="4"/>
+    <col min="12796" max="12796" width="21.77734375" style="4" customWidth="1"/>
+    <col min="12797" max="12797" width="26.109375" style="4" customWidth="1"/>
+    <col min="12798" max="13051" width="8.77734375" style="4"/>
+    <col min="13052" max="13052" width="21.77734375" style="4" customWidth="1"/>
+    <col min="13053" max="13053" width="26.109375" style="4" customWidth="1"/>
+    <col min="13054" max="13307" width="8.77734375" style="4"/>
+    <col min="13308" max="13308" width="21.77734375" style="4" customWidth="1"/>
+    <col min="13309" max="13309" width="26.109375" style="4" customWidth="1"/>
+    <col min="13310" max="13563" width="8.77734375" style="4"/>
+    <col min="13564" max="13564" width="21.77734375" style="4" customWidth="1"/>
+    <col min="13565" max="13565" width="26.109375" style="4" customWidth="1"/>
+    <col min="13566" max="13819" width="8.77734375" style="4"/>
+    <col min="13820" max="13820" width="21.77734375" style="4" customWidth="1"/>
+    <col min="13821" max="13821" width="26.109375" style="4" customWidth="1"/>
+    <col min="13822" max="14075" width="8.77734375" style="4"/>
+    <col min="14076" max="14076" width="21.77734375" style="4" customWidth="1"/>
+    <col min="14077" max="14077" width="26.109375" style="4" customWidth="1"/>
+    <col min="14078" max="14331" width="8.77734375" style="4"/>
+    <col min="14332" max="14332" width="21.77734375" style="4" customWidth="1"/>
+    <col min="14333" max="14333" width="26.109375" style="4" customWidth="1"/>
+    <col min="14334" max="14587" width="8.77734375" style="4"/>
+    <col min="14588" max="14588" width="21.77734375" style="4" customWidth="1"/>
+    <col min="14589" max="14589" width="26.109375" style="4" customWidth="1"/>
+    <col min="14590" max="14843" width="8.77734375" style="4"/>
+    <col min="14844" max="14844" width="21.77734375" style="4" customWidth="1"/>
+    <col min="14845" max="14845" width="26.109375" style="4" customWidth="1"/>
+    <col min="14846" max="15099" width="8.77734375" style="4"/>
+    <col min="15100" max="15100" width="21.77734375" style="4" customWidth="1"/>
+    <col min="15101" max="15101" width="26.109375" style="4" customWidth="1"/>
+    <col min="15102" max="15355" width="8.77734375" style="4"/>
+    <col min="15356" max="15356" width="21.77734375" style="4" customWidth="1"/>
+    <col min="15357" max="15357" width="26.109375" style="4" customWidth="1"/>
+    <col min="15358" max="15611" width="8.77734375" style="4"/>
+    <col min="15612" max="15612" width="21.77734375" style="4" customWidth="1"/>
+    <col min="15613" max="15613" width="26.109375" style="4" customWidth="1"/>
+    <col min="15614" max="15867" width="8.77734375" style="4"/>
+    <col min="15868" max="15868" width="21.77734375" style="4" customWidth="1"/>
+    <col min="15869" max="15869" width="26.109375" style="4" customWidth="1"/>
+    <col min="15870" max="16123" width="8.77734375" style="4"/>
+    <col min="16124" max="16124" width="21.77734375" style="4" customWidth="1"/>
+    <col min="16125" max="16125" width="26.109375" style="4" customWidth="1"/>
+    <col min="16126" max="16384" width="8.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="H2" s="1">
         <v>419.49</v>
@@ -1644,27 +1642,27 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="H3" s="1">
         <v>419.49</v>
@@ -1673,27 +1671,27 @@
         <v>495</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="H4" s="1">
         <v>369.49</v>
@@ -1702,27 +1700,27 @@
         <v>436</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="H5" s="1">
         <v>369.49</v>
@@ -1731,27 +1729,27 @@
         <v>436</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="H6" s="1">
         <v>279.66000000000003</v>
@@ -1760,27 +1758,27 @@
         <v>330</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="H7" s="1">
         <v>459.32</v>
@@ -1789,27 +1787,27 @@
         <v>542</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="G8" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1">
         <v>419.49</v>
@@ -1818,27 +1816,27 @@
         <v>495</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>13</v>
-      </c>
       <c r="G9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1">
         <v>419.49</v>
@@ -1847,27 +1845,27 @@
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="H10" s="1">
         <v>369.49</v>
@@ -1876,27 +1874,27 @@
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="39.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="F11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="H11" s="11">
         <v>459.32</v>
@@ -1905,9 +1903,9 @@
         <v>542</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -1915,20 +1913,20 @@
         <v>1</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -1936,20 +1934,20 @@
         <v>1</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -1957,20 +1955,20 @@
         <v>2</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>13</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1978,20 +1976,20 @@
         <v>2</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -1999,34 +1997,34 @@
         <v>0</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
